--- a/artfynd/A 34816-2023.xlsx
+++ b/artfynd/A 34816-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +942,116 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112492939</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90321</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Koralltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hericium coralloides</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Pers.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Klåverödsdammen, Sk</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>386456</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6211174</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Svalöv</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Konga</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Kenth Sundgren</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Kenth Sundgren</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34816-2023.xlsx
+++ b/artfynd/A 34816-2023.xlsx
@@ -947,7 +947,7 @@
         <v>112492939</v>
       </c>
       <c r="B4" t="n">
-        <v>90321</v>
+        <v>90335</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
